--- a/biology/Mycologie/Otidea_onotica/Otidea_onotica.xlsx
+++ b/biology/Mycologie/Otidea_onotica/Otidea_onotica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oreille-de-lièvre
-Otidea onotica, l'Oreille-de-lièvre ou Oreille-d'âne, est une espèce de champignons ascomycètes du genre Otidea et de la famille des Pyronemataceae dans l'ordre des Pezizales. Le genre Otidea se différencie des Pézizes par sa fente sur toute sa hauteur, qui, sur cette espèce, ne mesure pas au delà de 8 à 10 cm. O. onotica forme des apothécies jaune orangé, enroulées en forme d'oreille et se différencie par son hyménium (l'intérieur de l'oreille) rosissant. Cette espèce européenne pousse sur la terre nue, en forêt où elle a un régime saprotrophe. O. onotica contient de la gyromitrine au même titre que Gyromitra esculenta, ce qui la rend toxique[1].
+Otidea onotica, l'Oreille-de-lièvre ou Oreille-d'âne, est une espèce de champignons ascomycètes du genre Otidea et de la famille des Pyronemataceae dans l'ordre des Pezizales. Le genre Otidea se différencie des Pézizes par sa fente sur toute sa hauteur, qui, sur cette espèce, ne mesure pas au delà de 8 à 10 cm. O. onotica forme des apothécies jaune orangé, enroulées en forme d'oreille et se différencie par son hyménium (l'intérieur de l'oreille) rosissant. Cette espèce européenne pousse sur la terre nue, en forêt où elle a un régime saprotrophe. O. onotica contient de la gyromitrine au même titre que Gyromitra esculenta, ce qui la rend toxique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Régis Courtecuisse et Bernard Duhem, Guide des champignons de France et d'Europe, Paris, Delachaux et Niestlé, second semestre 1994, 480 p. (ISBN 2-603-00953-2), p. 132-133
